--- a/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3928</v>
+        <v>4195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003773557863809999</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01242654504032384</v>
+        <v>0.01327141943608829</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4067</v>
+        <v>4077</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.001884153456144647</v>
+        <v>0.001884153456144648</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006425160651310538</v>
+        <v>0.006440192645228418</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5653</v>
+        <v>5443</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005424898795628112</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01783597287923716</v>
+        <v>0.01717360854613101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2758</v>
+        <v>2458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.001554078491162212</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.008724813350231248</v>
+        <v>0.007776476291676553</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -846,19 +846,19 @@
         <v>2211</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258</v>
+        <v>489</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6556</v>
+        <v>6098</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.003492181790088238</v>
+        <v>0.00349218179008824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0004081046991768602</v>
+        <v>0.0007720229157595113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01035718847216407</v>
+        <v>0.009632812805315073</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>6361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2388</v>
+        <v>2117</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13323</v>
+        <v>13593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02006882070787949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007534159633905303</v>
+        <v>0.006680594601190261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04203583169346399</v>
+        <v>0.04288877853042238</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -896,19 +896,19 @@
         <v>2203</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>509</v>
+        <v>729</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5452</v>
+        <v>6039</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006968946954061739</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001611693806887798</v>
+        <v>0.00230565243617543</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01724917122321322</v>
+        <v>0.01910820207827261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -917,19 +917,19 @@
         <v>8563</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4146</v>
+        <v>3993</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15528</v>
+        <v>16294</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01352799814755077</v>
+        <v>0.01352799814755078</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00655020361769372</v>
+        <v>0.006308699186381892</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02453113332152939</v>
+        <v>0.02574130677407576</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>10640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5839</v>
+        <v>5697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19231</v>
+        <v>19127</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0335708270127351</v>
+        <v>0.03357082701273509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01842319017191167</v>
+        <v>0.01797646649552549</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06067661116035814</v>
+        <v>0.06034853272097809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -967,19 +967,19 @@
         <v>14856</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9937</v>
+        <v>10075</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21119</v>
+        <v>21271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0470041724438088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03143930501408079</v>
+        <v>0.03187697259127999</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06682008705381837</v>
+        <v>0.06729983800922633</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -988,19 +988,19 @@
         <v>25496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18465</v>
+        <v>17743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34984</v>
+        <v>35039</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04027815339675071</v>
+        <v>0.04027815339675072</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02917032995034536</v>
+        <v>0.02802984390473569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05526702152010261</v>
+        <v>0.05535308104832452</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>298222</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288219</v>
+        <v>287084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304998</v>
+        <v>304624</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9409354534837573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9093736553963663</v>
+        <v>0.9057923289756237</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9623134916878836</v>
+        <v>0.9611333119156656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>503</v>
@@ -1038,19 +1038,19 @@
         <v>297318</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290029</v>
+        <v>290154</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302675</v>
+        <v>302783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9406992442471575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.917636497914384</v>
+        <v>0.9180329143407827</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9576462798419063</v>
+        <v>0.9579887259349048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>813</v>
@@ -1059,19 +1059,19 @@
         <v>595539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>584409</v>
+        <v>583362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>604941</v>
+        <v>604319</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9408175132094654</v>
+        <v>0.9408175132094656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9232344310385038</v>
+        <v>0.9215795099901695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9556703408313605</v>
+        <v>0.9546876861043513</v>
       </c>
     </row>
     <row r="9">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7013</v>
+        <v>7174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002688935937743353</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01324101529800295</v>
+        <v>0.01354489015711731</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4580</v>
+        <v>4638</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00238207013173589</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008419503761271922</v>
+        <v>0.008525276320595144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1205,19 +1205,19 @@
         <v>2720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9000</v>
+        <v>8279</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002533451639305876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0005054632392508588</v>
+        <v>0.000499792109303511</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008382671623626587</v>
+        <v>0.007711209132380333</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>3755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1297</v>
+        <v>1354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8032</v>
+        <v>8505</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006901466867797933</v>
+        <v>0.006901466867797932</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002384828088493665</v>
+        <v>0.00248893539088404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01476483649292912</v>
+        <v>0.01563293606673501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1268,19 +1268,19 @@
         <v>3754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1248</v>
+        <v>1281</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8661</v>
+        <v>8564</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.00349686968414773</v>
+        <v>0.003496869684147729</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001162052839978542</v>
+        <v>0.001193020258492071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008066799464907019</v>
+        <v>0.007976523714201295</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>22708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13876</v>
+        <v>13138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34790</v>
+        <v>33599</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04287350108624775</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02619733743882123</v>
+        <v>0.02480540886236623</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06568334789224575</v>
+        <v>0.06343540923959819</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1318,19 +1318,19 @@
         <v>18344</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12552</v>
+        <v>12731</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25830</v>
+        <v>26541</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03372034565056153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02307309755541793</v>
+        <v>0.02340197885890128</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04747950453310307</v>
+        <v>0.04878715786163541</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1339,19 +1339,19 @@
         <v>41053</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>29981</v>
+        <v>30937</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>54644</v>
+        <v>56775</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03823573459827274</v>
+        <v>0.03823573459827273</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02792379067077224</v>
+        <v>0.02881409153440654</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05089394812112122</v>
+        <v>0.05287937942976448</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>176614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152171</v>
+        <v>153365</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>205306</v>
+        <v>207780</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3334471509014151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2872997135196868</v>
+        <v>0.2895536516014311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3876192645704828</v>
+        <v>0.3922898056306141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -1389,19 +1389,19 @@
         <v>151911</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133219</v>
+        <v>133805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170743</v>
+        <v>171644</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2792402755492755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2448802022327452</v>
+        <v>0.2459576063594637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3138574204040321</v>
+        <v>0.3155127433060449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>329</v>
@@ -1410,19 +1410,19 @@
         <v>328524</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>298267</v>
+        <v>297433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>365781</v>
+        <v>365542</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.305981340701597</v>
+        <v>0.3059813407015968</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2778007973702951</v>
+        <v>0.2770233965099038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.34068146379061</v>
+        <v>0.3404587322381136</v>
       </c>
     </row>
     <row r="14">
@@ -1439,19 +1439,19 @@
         <v>328914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>300756</v>
+        <v>299756</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356335</v>
+        <v>355654</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6209904120745937</v>
+        <v>0.6209904120745939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.567829219890196</v>
+        <v>0.5659397741421218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6727609676862694</v>
+        <v>0.6714754670053988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -1460,19 +1460,19 @@
         <v>368709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349379</v>
+        <v>348527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388839</v>
+        <v>387135</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6777558418006291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6422223098957305</v>
+        <v>0.6406575499006316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7147573418426292</v>
+        <v>0.7116260804336317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>710</v>
@@ -1481,19 +1481,19 @@
         <v>697622</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>662126</v>
+        <v>659084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729536</v>
+        <v>730141</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6497526033766768</v>
+        <v>0.6497526033766767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.616692236783854</v>
+        <v>0.6138586112762635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6794758213987772</v>
+        <v>0.6800392994860236</v>
       </c>
     </row>
     <row r="15">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6464</v>
+        <v>6740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005849618163690327</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02057379612772208</v>
+        <v>0.02145100529653171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4185</v>
+        <v>3794</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.003418675220755118</v>
+        <v>0.003418675220755119</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01179791524185242</v>
+        <v>0.01069505832533653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1627,19 +1627,19 @@
         <v>3050</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>658</v>
+        <v>1132</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7415</v>
+        <v>8477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00456052303572385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0009836985974386091</v>
+        <v>0.001691919929283877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01108594133140416</v>
+        <v>0.01267330751588846</v>
       </c>
     </row>
     <row r="17">
@@ -1672,16 +1672,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4232</v>
+        <v>4517</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.003656818049590894</v>
+        <v>0.003656818049590895</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01192996111345538</v>
+        <v>0.01273398302789116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3890</v>
+        <v>4605</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001939159594546329</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.005815216123253288</v>
+        <v>0.006884060295124352</v>
       </c>
     </row>
     <row r="18">
@@ -1719,19 +1719,19 @@
         <v>9526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4736</v>
+        <v>4861</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18433</v>
+        <v>17820</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03031856124653981</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01507459199326711</v>
+        <v>0.01547184527118836</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05867043663416473</v>
+        <v>0.05671762565533851</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1740,19 +1740,19 @@
         <v>11055</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6241</v>
+        <v>6299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17904</v>
+        <v>18239</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03116708273412256</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01759539722981372</v>
+        <v>0.0177579506122765</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05047570162454085</v>
+        <v>0.05142010029511217</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>26</v>
@@ -1761,19 +1761,19 @@
         <v>20580</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12954</v>
+        <v>13577</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31307</v>
+        <v>29823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03076852035347676</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0193659529250742</v>
+        <v>0.02029830486728519</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04680574136618606</v>
+        <v>0.04458688929621971</v>
       </c>
     </row>
     <row r="19">
@@ -1790,19 +1790,19 @@
         <v>22964</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14697</v>
+        <v>14342</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33950</v>
+        <v>33490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07309056770420519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04677797081838665</v>
+        <v>0.04564812054318007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1080588090059317</v>
+        <v>0.1065943457944563</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1811,19 +1811,19 @@
         <v>14220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8863</v>
+        <v>9390</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21807</v>
+        <v>21493</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04009112684065192</v>
+        <v>0.04009112684065193</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02498690213092986</v>
+        <v>0.02647244122448035</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06147986984063585</v>
+        <v>0.06059625814656579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -1832,19 +1832,19 @@
         <v>37184</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27632</v>
+        <v>27130</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50745</v>
+        <v>50045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05559142459743168</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04131025411691023</v>
+        <v>0.04056020897667433</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07586583667339747</v>
+        <v>0.07481897080357598</v>
       </c>
     </row>
     <row r="20">
@@ -1861,19 +1861,19 @@
         <v>279856</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266887</v>
+        <v>268115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289897</v>
+        <v>289870</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8907412528855647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8494639290686543</v>
+        <v>0.8533711930623175</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9227025557760685</v>
+        <v>0.9226167376126374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>490</v>
@@ -1882,19 +1882,19 @@
         <v>326913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>318041</v>
+        <v>317166</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>334403</v>
+        <v>334237</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9216662971548794</v>
+        <v>0.9216662971548795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8966536379791411</v>
+        <v>0.8941865522384166</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9427821588329036</v>
+        <v>0.9423153688650724</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>814</v>
@@ -1903,19 +1903,19 @@
         <v>606769</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>591018</v>
+        <v>590952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>619260</v>
+        <v>618981</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9071403724188215</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8835928317212802</v>
+        <v>0.8834936910618489</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9258143157763347</v>
+        <v>0.9253976197361783</v>
       </c>
     </row>
     <row r="21">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2335</v>
+        <v>2165</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001031807618479574</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005585021106929503</v>
+        <v>0.005180055545883065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2213</v>
+        <v>2515</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0005577069780060791</v>
+        <v>0.0005577069780060789</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.002860990116510754</v>
+        <v>0.003252444903568901</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>18998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9292</v>
+        <v>8465</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35535</v>
+        <v>34955</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05346533359228734</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02615081068146835</v>
+        <v>0.02382265279040529</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.100003920254082</v>
+        <v>0.09837043449865571</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2138,19 +2138,19 @@
         <v>8917</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3905</v>
+        <v>3528</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24428</v>
+        <v>23015</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02133362924745647</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009342504678503134</v>
+        <v>0.00844055715020558</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05843947581384525</v>
+        <v>0.05506041621499488</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -2159,19 +2159,19 @@
         <v>27916</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15059</v>
+        <v>16005</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>45485</v>
+        <v>46405</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03609768151510396</v>
+        <v>0.03609768151510395</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01947281710813835</v>
+        <v>0.02069646589657419</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05881722905362425</v>
+        <v>0.06000645946350323</v>
       </c>
     </row>
     <row r="25">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3189</v>
+        <v>2988</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001652219585428852</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008975512748857524</v>
+        <v>0.008408606184419793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2209,19 +2209,19 @@
         <v>3102</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1302</v>
+        <v>1163</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6502</v>
+        <v>6727</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.007421775964800419</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003116028892426667</v>
+        <v>0.002782016717657305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01555620763886306</v>
+        <v>0.01609432085681832</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -2230,19 +2230,19 @@
         <v>3689</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1592</v>
+        <v>1506</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7373</v>
+        <v>7191</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004770748461496372</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002059048255531014</v>
+        <v>0.001947870200982737</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009533561338592355</v>
+        <v>0.009299155192581706</v>
       </c>
     </row>
     <row r="26">
@@ -2259,19 +2259,19 @@
         <v>335751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>319022</v>
+        <v>319968</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>345332</v>
+        <v>346115</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9448824468222838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8978048325619106</v>
+        <v>0.9004650336738492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9718469812677175</v>
+        <v>0.9740490114295832</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>575</v>
@@ -2280,19 +2280,19 @@
         <v>405548</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>391462</v>
+        <v>391442</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>410941</v>
+        <v>411742</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9702127871692635</v>
+        <v>0.9702127871692634</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9365146843993923</v>
+        <v>0.9364654694515741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9831155826415614</v>
+        <v>0.9850300040677532</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>844</v>
@@ -2301,19 +2301,19 @@
         <v>741299</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>725271</v>
+        <v>723559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>754985</v>
+        <v>753976</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9585738630453936</v>
+        <v>0.9585738630453935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9378480339199349</v>
+        <v>0.9356350640118697</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9762710164995024</v>
+        <v>0.9749669857408099</v>
       </c>
     </row>
     <row r="27">
@@ -2452,19 +2452,19 @@
         <v>4096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1293</v>
+        <v>1520</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8009</v>
+        <v>8407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02015455176496343</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.00636111999512575</v>
+        <v>0.007478563107845999</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03941138807075759</v>
+        <v>0.04136617499464252</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2473,19 +2473,19 @@
         <v>2643</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7202</v>
+        <v>7190</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01167273866103422</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002993163283211161</v>
+        <v>0.003006099100382876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03181076222314714</v>
+        <v>0.03175963301597057</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2494,19 +2494,19 @@
         <v>6739</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3306</v>
+        <v>3355</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12433</v>
+        <v>12225</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01568497223236628</v>
+        <v>0.01568497223236627</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007695379951935471</v>
+        <v>0.007809795933822224</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02893918219696246</v>
+        <v>0.0284563674522758</v>
       </c>
     </row>
     <row r="30">
@@ -2523,19 +2523,19 @@
         <v>10348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5643</v>
+        <v>5067</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18464</v>
+        <v>17507</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05091996319894416</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02776548403329938</v>
+        <v>0.02493267515676476</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09085606445519506</v>
+        <v>0.08614443894226952</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2544,19 +2544,19 @@
         <v>3814</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1583</v>
+        <v>1631</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7609</v>
+        <v>7213</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01684697320820815</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.006992556472577638</v>
+        <v>0.007204305564153488</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03360843274993536</v>
+        <v>0.03185910399463956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>21</v>
@@ -2565,19 +2565,19 @@
         <v>14162</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8408</v>
+        <v>8777</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>22815</v>
+        <v>23053</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03296484713933279</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01957071140171184</v>
+        <v>0.02043083412223337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05310631701159618</v>
+        <v>0.05365859625178526</v>
       </c>
     </row>
     <row r="31">
@@ -2594,19 +2594,19 @@
         <v>121663</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>109878</v>
+        <v>110235</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134208</v>
+        <v>134137</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5986568263160992</v>
+        <v>0.5986568263160993</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5406687548377734</v>
+        <v>0.542428089833095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.660389905751854</v>
+        <v>0.6600403193533401</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>364</v>
@@ -2615,19 +2615,19 @@
         <v>166881</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>156428</v>
+        <v>155529</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176069</v>
+        <v>175676</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7371331723540658</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6909609243279224</v>
+        <v>0.6869919214517975</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7777160755686746</v>
+        <v>0.7759823042601109</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -2636,19 +2636,19 @@
         <v>288544</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>270885</v>
+        <v>272512</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>305017</v>
+        <v>304148</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.6716283754903456</v>
+        <v>0.6716283754903455</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6305257637733841</v>
+        <v>0.6343129423026159</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7099734714414035</v>
+        <v>0.7079508268212523</v>
       </c>
     </row>
     <row r="32">
@@ -2665,19 +2665,19 @@
         <v>67119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55230</v>
+        <v>55232</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>78768</v>
+        <v>78653</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3302686587199933</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2717683045459209</v>
+        <v>0.2717747973966853</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3875881361784672</v>
+        <v>0.3870205907442665</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>114</v>
@@ -2686,19 +2686,19 @@
         <v>53054</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>43389</v>
+        <v>44830</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63195</v>
+        <v>63497</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2343471157766917</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.191652781738218</v>
+        <v>0.1980194800699793</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2791399718484491</v>
+        <v>0.2804755262626182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>201</v>
@@ -2707,19 +2707,19 @@
         <v>120174</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>104427</v>
+        <v>105342</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>136221</v>
+        <v>135583</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2797218051379554</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2430691144650637</v>
+        <v>0.2451982403430449</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3170742546787648</v>
+        <v>0.3155903988560728</v>
       </c>
     </row>
     <row r="33">
@@ -2811,19 +2811,19 @@
         <v>5706</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1695</v>
+        <v>1677</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13366</v>
+        <v>13096</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02107642328091265</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.006259985818233689</v>
+        <v>0.006194677000017784</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04937510897451646</v>
+        <v>0.04837547260702658</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3478</v>
+        <v>4104</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004073666083982417</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01325830636975731</v>
+        <v>0.01564494338004077</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -2853,19 +2853,19 @@
         <v>6774</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2778</v>
+        <v>2580</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15348</v>
+        <v>13887</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01270907735465887</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005211610442705052</v>
+        <v>0.004841176997425549</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02879529325689791</v>
+        <v>0.0260537154181495</v>
       </c>
     </row>
     <row r="35">
@@ -2882,19 +2882,19 @@
         <v>4060</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1545</v>
+        <v>1608</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9134</v>
+        <v>9715</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01499906571204141</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005706251009770605</v>
+        <v>0.005938197104683604</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03374006275626487</v>
+        <v>0.03588895063774728</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2881</v>
+        <v>3168</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.003223060839399512</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01098337545238568</v>
+        <v>0.01207576518321637</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2924,19 +2924,19 @@
         <v>4906</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1991</v>
+        <v>1762</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10634</v>
+        <v>9487</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.009203893478655946</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003735016768051367</v>
+        <v>0.003306460080618414</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01995045454542544</v>
+        <v>0.01779864382981016</v>
       </c>
     </row>
     <row r="36">
@@ -2953,19 +2953,19 @@
         <v>13253</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7502</v>
+        <v>7173</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>21047</v>
+        <v>20541</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04895605898638525</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0277134682714671</v>
+        <v>0.02649565062379361</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07774735423070971</v>
+        <v>0.07587746778678493</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>13</v>
@@ -2974,19 +2974,19 @@
         <v>8043</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4376</v>
+        <v>4228</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>14530</v>
+        <v>13872</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03066455990705515</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0166830410828755</v>
+        <v>0.01611992284736595</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05539263204354469</v>
+        <v>0.05288508857109787</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>29</v>
@@ -2995,19 +2995,19 @@
         <v>21296</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14381</v>
+        <v>14444</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>30801</v>
+        <v>31198</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03995450126643262</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02697997940029135</v>
+        <v>0.02709803102908407</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05778588908547217</v>
+        <v>0.05853080052687089</v>
       </c>
     </row>
     <row r="37">
@@ -3024,19 +3024,19 @@
         <v>39230</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29111</v>
+        <v>29662</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51537</v>
+        <v>51220</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1449151286397385</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1075352438760159</v>
+        <v>0.1095716966947796</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1903807311104819</v>
+        <v>0.189209828984606</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>48</v>
@@ -3045,19 +3045,19 @@
         <v>28600</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20828</v>
+        <v>21475</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37784</v>
+        <v>37246</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.109034552198634</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07940486639019215</v>
+        <v>0.08187108307820064</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1440478680619306</v>
+        <v>0.1419956185884338</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>96</v>
@@ -3066,19 +3066,19 @@
         <v>67830</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>54314</v>
+        <v>54896</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>81882</v>
+        <v>83151</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1272576868708049</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1019011982313902</v>
+        <v>0.1029920042443937</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1536223408991031</v>
+        <v>0.156003124505847</v>
       </c>
     </row>
     <row r="38">
@@ -3095,19 +3095,19 @@
         <v>208459</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>194430</v>
+        <v>194610</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>221594</v>
+        <v>219647</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7700533233809224</v>
+        <v>0.7700533233809222</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.71822984900715</v>
+        <v>0.7188946295596186</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8185756760684628</v>
+        <v>0.8113839720690117</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>393</v>
@@ -3116,19 +3116,19 @@
         <v>223746</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>212775</v>
+        <v>213995</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>232199</v>
+        <v>232066</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8530041609709288</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.811175964263389</v>
+        <v>0.8158296879065801</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8852294060133523</v>
+        <v>0.8847231451455351</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>690</v>
@@ -3137,19 +3137,19 @@
         <v>432205</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>415301</v>
+        <v>414268</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>447991</v>
+        <v>448986</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8108748410294476</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7791612097105599</v>
+        <v>0.7772225429141549</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8404910783139385</v>
+        <v>0.8423587354053588</v>
       </c>
     </row>
     <row r="39">
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8949</v>
+        <v>8445</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003593495599896759</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01259405920756434</v>
+        <v>0.01188496313377322</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3262,19 +3262,19 @@
         <v>6203</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2099</v>
+        <v>2370</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14158</v>
+        <v>13640</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.008069071894996664</v>
+        <v>0.008069071894996662</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002730642983969086</v>
+        <v>0.003082189897126439</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01841618958332445</v>
+        <v>0.01774213185837641</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3283,19 +3283,19 @@
         <v>8757</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4046</v>
+        <v>4118</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17364</v>
+        <v>16871</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.005919376897379358</v>
+        <v>0.00591937689737936</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002735032213892965</v>
+        <v>0.002783469221606694</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01173816143229495</v>
+        <v>0.01140454898946379</v>
       </c>
     </row>
     <row r="41">
@@ -3312,19 +3312,19 @@
         <v>8423</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3550</v>
+        <v>3359</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16785</v>
+        <v>19381</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01185453117870172</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004996638203958264</v>
+        <v>0.004727965960628492</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02362303920298701</v>
+        <v>0.02727594499135412</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3333,19 +3333,19 @@
         <v>4615</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1581</v>
+        <v>1401</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11736</v>
+        <v>11382</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.006003080392287393</v>
+        <v>0.006003080392287392</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002056026007615874</v>
+        <v>0.001822096413874896</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01526628003340157</v>
+        <v>0.01480598000522344</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>12</v>
@@ -3354,19 +3354,19 @@
         <v>13038</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7086</v>
+        <v>6614</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>23578</v>
+        <v>22677</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.008813631180602783</v>
+        <v>0.008813631180602785</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004790398913257258</v>
+        <v>0.004470835813334816</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0159387591193425</v>
+        <v>0.01532909979254101</v>
       </c>
     </row>
     <row r="42">
@@ -3383,19 +3383,19 @@
         <v>31818</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19940</v>
+        <v>19127</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>49358</v>
+        <v>47253</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04477983598878184</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02806360941100047</v>
+        <v>0.02691938333215816</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06946538964561835</v>
+        <v>0.06650290944446503</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>31</v>
@@ -3404,19 +3404,19 @@
         <v>26823</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>19021</v>
+        <v>18005</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>39956</v>
+        <v>39988</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.03489086914142407</v>
+        <v>0.03489086914142406</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02474250257617871</v>
+        <v>0.02342025398807637</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05197417588577984</v>
+        <v>0.05201599614313304</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>55</v>
@@ -3425,19 +3425,19 @@
         <v>58641</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>43912</v>
+        <v>44307</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77295</v>
+        <v>78984</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03964070718722903</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02968390397766419</v>
+        <v>0.02995102875383814</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05225045566767329</v>
+        <v>0.05339240529616315</v>
       </c>
     </row>
     <row r="43">
@@ -3454,19 +3454,19 @@
         <v>167574</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>142447</v>
+        <v>141674</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>192722</v>
+        <v>193799</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2358416658711235</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2004773423642888</v>
+        <v>0.1993891032359792</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2712334703063026</v>
+        <v>0.272749344573984</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>193</v>
@@ -3475,19 +3475,19 @@
         <v>147243</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>128712</v>
+        <v>130018</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>169380</v>
+        <v>169087</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1915303253811964</v>
+        <v>0.1915303253811963</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1674247138878225</v>
+        <v>0.1691239912032564</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2203253260218506</v>
+        <v>0.2199442053038499</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>336</v>
@@ -3496,19 +3496,19 @@
         <v>314818</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>284270</v>
+        <v>283396</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>349228</v>
+        <v>351172</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2128138117320389</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1921634815205688</v>
+        <v>0.1915727214355657</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2360742848162308</v>
+        <v>0.237388992261844</v>
       </c>
     </row>
     <row r="44">
@@ -3525,19 +3525,19 @@
         <v>500169</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>471345</v>
+        <v>471589</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>526244</v>
+        <v>528833</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7039304713614963</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6633631326038494</v>
+        <v>0.6637071259642655</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7406271024222404</v>
+        <v>0.7442706694909794</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>721</v>
@@ -3546,19 +3546,19 @@
         <v>583888</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>558509</v>
+        <v>560315</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>603150</v>
+        <v>604891</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.7595066531900955</v>
+        <v>0.7595066531900956</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.726493983096867</v>
+        <v>0.7288432316790767</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7845619448342471</v>
+        <v>0.7868268547678778</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1136</v>
@@ -3567,19 +3567,19 @@
         <v>1084058</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1045579</v>
+        <v>1046646</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1117279</v>
+        <v>1117373</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.73281247300275</v>
+        <v>0.7328124730027498</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7068010934927396</v>
+        <v>0.7075219891074136</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7552696250036535</v>
+        <v>0.7553329219985733</v>
       </c>
     </row>
     <row r="45">
@@ -3687,16 +3687,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3484</v>
+        <v>3493</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.0008282778170856463</v>
+        <v>0.0008282778170856464</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004194541776306933</v>
+        <v>0.004204841162431503</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3450</v>
+        <v>3469</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0004224123328785828</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002118049163576806</v>
+        <v>0.002129775716691797</v>
       </c>
     </row>
     <row r="47">
@@ -3734,19 +3734,19 @@
         <v>12271</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>6094</v>
+        <v>6326</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>20154</v>
+        <v>20438</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01537582964872386</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.007636255949072538</v>
+        <v>0.007926957994380703</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02525335724027805</v>
+        <v>0.02560875004559611</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>5</v>
@@ -3755,19 +3755,19 @@
         <v>3668</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1320</v>
+        <v>1245</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8874</v>
+        <v>8314</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.004415978300941835</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001589079366114157</v>
+        <v>0.001499408782322314</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0106837056351084</v>
+        <v>0.0100097141419006</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>17</v>
@@ -3776,19 +3776,19 @@
         <v>15939</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9459</v>
+        <v>10252</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25517</v>
+        <v>25066</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00978642923219626</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005807485462599392</v>
+        <v>0.00629468983356089</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01566745169948275</v>
+        <v>0.01539034679879528</v>
       </c>
     </row>
     <row r="48">
@@ -3805,19 +3805,19 @@
         <v>53329</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>38979</v>
+        <v>38556</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>69560</v>
+        <v>71551</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.06682237714261313</v>
+        <v>0.06682237714261312</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04884130341327749</v>
+        <v>0.04831188415175446</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.08716009492666901</v>
+        <v>0.08965506616119011</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>34</v>
@@ -3826,19 +3826,19 @@
         <v>27402</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>18939</v>
+        <v>18919</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>39376</v>
+        <v>38294</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.03298989449715899</v>
+        <v>0.032989894497159</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02280192220507068</v>
+        <v>0.0227775854357686</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04740611034741729</v>
+        <v>0.04610367264165655</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>81</v>
@@ -3847,19 +3847,19 @@
         <v>80731</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>64849</v>
+        <v>64330</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>101600</v>
+        <v>102057</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.04956819306748572</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03981680415780877</v>
+        <v>0.03949831352630635</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06238177310800548</v>
+        <v>0.06266249337628184</v>
       </c>
     </row>
     <row r="49">
@@ -3876,19 +3876,19 @@
         <v>241046</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>215444</v>
+        <v>215707</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>274128</v>
+        <v>268992</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3020352528372087</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2699561096672273</v>
+        <v>0.2702851104924197</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3434876845012167</v>
+        <v>0.3370525775997051</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>274</v>
@@ -3897,19 +3897,19 @@
         <v>214650</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>193618</v>
+        <v>189396</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>239718</v>
+        <v>235525</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.2584252486895242</v>
+        <v>0.2584252486895243</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.23310371797396</v>
+        <v>0.2280205261495478</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2886048142072923</v>
+        <v>0.2835573171667374</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>496</v>
@@ -3918,19 +3918,19 @@
         <v>455696</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>420214</v>
+        <v>422061</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>489795</v>
+        <v>495234</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2797946432146003</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2580087920347004</v>
+        <v>0.2591425362465492</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3007309206045389</v>
+        <v>0.304070334460997</v>
       </c>
     </row>
     <row r="50">
@@ -3947,19 +3947,19 @@
         <v>491426</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>462288</v>
+        <v>459869</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>519464</v>
+        <v>521281</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6157665403714543</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5792557731105277</v>
+        <v>0.5762250421861903</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6508984952362797</v>
+        <v>0.6531754424560073</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>747</v>
@@ -3968,19 +3968,19 @@
         <v>584201</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>560355</v>
+        <v>560222</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>608739</v>
+        <v>609059</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7033406006952891</v>
+        <v>0.7033406006952893</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6746312775171185</v>
+        <v>0.6744714757655852</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7328821682603187</v>
+        <v>0.733268069821841</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1228</v>
@@ -3989,19 +3989,19 @@
         <v>1075627</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1037805</v>
+        <v>1037792</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1111015</v>
+        <v>1113088</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.660428322152839</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.637205842956769</v>
+        <v>0.6371978167138482</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6821565695955515</v>
+        <v>0.6834290652016166</v>
       </c>
     </row>
     <row r="51">
@@ -4093,19 +4093,19 @@
         <v>11521</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>5939</v>
+        <v>6090</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>20979</v>
+        <v>21367</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.003292949649553444</v>
+        <v>0.003292949649553445</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.001697514206369765</v>
+        <v>0.001740801126165689</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.005996157949209599</v>
+        <v>0.006107286874466621</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>16</v>
@@ -4114,19 +4114,19 @@
         <v>12092</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>7129</v>
+        <v>6693</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>20480</v>
+        <v>20637</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.003249861468920855</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.001915961449019074</v>
+        <v>0.00179887053892356</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.005504159622722099</v>
+        <v>0.005546200895268315</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>26</v>
@@ -4135,19 +4135,19 @@
         <v>23613</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>15141</v>
+        <v>15323</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>35790</v>
+        <v>34802</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.003270742524095454</v>
+        <v>0.003270742524095455</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.002097179040487391</v>
+        <v>0.002122439414417694</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.004957367717569714</v>
+        <v>0.00482058687221198</v>
       </c>
     </row>
     <row r="53">
@@ -4164,19 +4164,19 @@
         <v>30570</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>20554</v>
+        <v>21071</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>43383</v>
+        <v>44823</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.008737558979721956</v>
+        <v>0.008737558979721958</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.005874884261637697</v>
+        <v>0.00602257734062926</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01239989036488369</v>
+        <v>0.01281142177214141</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>24</v>
@@ -4185,19 +4185,19 @@
         <v>17314</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>11100</v>
+        <v>11236</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>26030</v>
+        <v>26540</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.004653167683111644</v>
+        <v>0.004653167683111643</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.002983113803898653</v>
+        <v>0.003019666208467621</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.006995717562892691</v>
+        <v>0.007132905134386712</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>56</v>
@@ -4206,19 +4206,19 @@
         <v>47884</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>36354</v>
+        <v>35959</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>64290</v>
+        <v>63567</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.006632513266217268</v>
+        <v>0.006632513266217269</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005035540893612956</v>
+        <v>0.004980857745213257</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.008905030230388127</v>
+        <v>0.008804832397755079</v>
       </c>
     </row>
     <row r="54">
@@ -4235,19 +4235,19 @@
         <v>166341</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>141440</v>
+        <v>139542</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>196531</v>
+        <v>196884</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.04754404263478559</v>
+        <v>0.0475440426347856</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.04042682634380144</v>
+        <v>0.03988449496584346</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.05617312291229686</v>
+        <v>0.05627403669242233</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>144</v>
@@ -4256,19 +4256,19 @@
         <v>106602</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>89583</v>
+        <v>87307</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>129425</v>
+        <v>128506</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02864980357631445</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.02407600792122866</v>
+        <v>0.02346421842882247</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.03478369306303113</v>
+        <v>0.03453674114720582</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>290</v>
@@ -4277,19 +4277,19 @@
         <v>272942</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>242189</v>
+        <v>241877</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>310524</v>
+        <v>315893</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.0378061810902818</v>
+        <v>0.03780618109028181</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.03354639383203766</v>
+        <v>0.03350325395041909</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.04301180782828258</v>
+        <v>0.0437554819018438</v>
       </c>
     </row>
     <row r="55">
@@ -4306,19 +4306,19 @@
         <v>780317</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>732902</v>
+        <v>729727</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>844935</v>
+        <v>838482</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.2230328908334913</v>
+        <v>0.2230328908334914</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2094806674049766</v>
+        <v>0.2085729710639797</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2415022743114302</v>
+        <v>0.2396577655306909</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1140</v>
@@ -4327,19 +4327,19 @@
         <v>741464</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>702627</v>
+        <v>699418</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>785528</v>
+        <v>786916</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1992727870783554</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1888351578162381</v>
+        <v>0.1879725143653298</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2111152459468211</v>
+        <v>0.2114882543490615</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>1883</v>
@@ -4348,19 +4348,19 @@
         <v>1521781</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1452553</v>
+        <v>1453910</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>1589843</v>
+        <v>1586460</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.2107872216676392</v>
+        <v>0.2107872216676393</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2011982270823419</v>
+        <v>0.2013860906373498</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2202147336738184</v>
+        <v>0.219746153544795</v>
       </c>
     </row>
     <row r="56">
@@ -4377,19 +4377,19 @@
         <v>2509916</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>2443326</v>
+        <v>2444628</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2561549</v>
+        <v>2566489</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7173925579024476</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6983596068566011</v>
+        <v>0.6987317248686057</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7321507059327997</v>
+        <v>0.733562490790181</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>4017</v>
@@ -4398,19 +4398,19 @@
         <v>2843378</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2792553</v>
+        <v>2798537</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>2885369</v>
+        <v>2887114</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.7641743801932976</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.7505148919038486</v>
+        <v>0.7521230620892305</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.7754596110904706</v>
+        <v>0.7759285814434238</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>6436</v>
@@ -4419,19 +4419,19 @@
         <v>5353294</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5278258</v>
+        <v>5280129</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>5430965</v>
+        <v>5430300</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.7415033414517661</v>
+        <v>0.7415033414517663</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7311098270004485</v>
+        <v>0.7313690463933448</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7522618081878487</v>
+        <v>0.7521696921184544</v>
       </c>
     </row>
     <row r="57">
